--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -716,7 +716,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>חטיבת השיריון 401</t>
+          <t>לוחם הנדסה, חט' השיריון 401</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28292,7 +28292,11 @@
           <t>בת 61, אופקים</t>
         </is>
       </c>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il//2023/11/20/LiliaGeller.jpg</t>
+        </is>
+      </c>
       <c r="M422" t="inlineStr"/>
       <c r="N422" t="inlineStr">
         <is>
@@ -28301,7 +28305,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>15zXmdec15nXlF/XkteZ15zXqF82MV8=</t>
+          <t>15zXmdec15nXlF/XkteZ15zXqF82MV8yMDIzMTEyMExpbGlhR2VsbGVyLmpwZw==</t>
         </is>
       </c>
     </row>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -559,7 +559,11 @@
           <t>בן 26, יסוד המעלה</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il/2023/11/21/ArnonMosheAvraham.jpg</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>סיירת גבעתי</t>
@@ -572,7 +576,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15DXqNeg15XXnyDXntep15Qg15DXkdeo15TXnV/Xkdeg15HXoNeZ16HXmNeZINeV16HXpNeZXzI2Xw==</t>
+          <t>15DXqNeg15XXnyDXntep15Qg15DXkdeo15TXnV/Xkdeg15HXoNeZ16HXmNeZINeV16HXpNeZXzI2XzIwMjMxMTIxQXJub25Nb3NoZUF2cmFoYW0uanBn</t>
         </is>
       </c>
     </row>
@@ -630,7 +634,11 @@
           <t>בן 20, נוף הגליל</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il/2023/11/21/IliaSenkin.jpg</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>גבעתי</t>
@@ -643,7 +651,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>15DXmdec15nXlF/Xodeg16fXmdefXzIwXw==</t>
+          <t>15DXmdec15nXlF/Xodeg16fXmdefXzIwXzIwMjMxMTIxSWxpYVNlbmtpbi5qcGc=</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1266,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>סגן (במיל')</t>
+          <t>סרן (במיל')</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -16536,7 +16544,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>מאבטח בחברת החשמל</t>
+          <t>עובד חברת החשמל</t>
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
@@ -67981,7 +67989,7 @@
       </c>
       <c r="M1021" t="inlineStr">
         <is>
-          <t>עובד בחברת החשמל</t>
+          <t>עובד חברת החשמל</t>
         </is>
       </c>
       <c r="N1021" t="inlineStr"/>
@@ -69788,7 +69796,7 @@
       </c>
       <c r="M1050" t="inlineStr">
         <is>
-          <t>היחידה הרב-מימדית</t>
+          <t>היחידה הרב-ממדית</t>
         </is>
       </c>
       <c r="N1050" t="inlineStr"/>
@@ -72392,7 +72400,7 @@
       </c>
       <c r="M1090" t="inlineStr">
         <is>
-          <t>היחידה הרב-מימדית</t>
+          <t>היחידה הרב-ממדית</t>
         </is>
       </c>
       <c r="N1090" t="inlineStr"/>
@@ -74761,7 +74769,7 @@
       </c>
       <c r="M1125" t="inlineStr">
         <is>
-          <t>חיל השיריון</t>
+          <t>שריון</t>
         </is>
       </c>
       <c r="N1125" t="inlineStr"/>
@@ -75009,7 +75017,7 @@
       </c>
       <c r="M1129" t="inlineStr">
         <is>
-          <t>היחידה הרב-מימדית</t>
+          <t>היחידה הרב-ממדית</t>
         </is>
       </c>
       <c r="N1129" t="inlineStr">

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -555,7 +555,11 @@
           <t>בת 57, גדרה</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il/2023/11/21/LimorHadad.jpg</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
@@ -564,7 +568,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15zXmdee15XXqF/Xl9eT15NfNTdf</t>
+          <t>15zXmdee15XXqF/Xl9eT15NfNTdfMjAyMzExMjFMaW1vckhhZGFkLmpwZw==</t>
         </is>
       </c>
     </row>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -559,8 +559,16 @@
           <t>בן 25, עפרה</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il/2023/11/22/lironSnir.png</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>סיירת גולני</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>נפל בקרב ברצועה, 21.11</t>
@@ -568,7 +576,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15zXmdeo15XXn1/Xqdeg15nXqF8yNV8=</t>
+          <t>15zXmdeo15XXn1/Xqdeg15nXqF8yNV8yMDIzMTEyMmxpcm9uU25pci5wbmc=</t>
         </is>
       </c>
     </row>
@@ -630,7 +638,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>לקתה בדום לב בעת אזעקה</t>
+          <t>לקתה במפרצת בעת אזעקה</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -555,7 +555,11 @@
           <t>בת 26, יקנעם</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il/2023/11/22/shanigabai.jpg</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
@@ -564,7 +568,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>16nXoNeZX9eS15HXkNeZXzI2Xw==</t>
+          <t>16nXoNeZX9eS15HXkNeZXzI2XzIwMjMxMTIyc2hhbmlnYWJhaS5qcGc=</t>
         </is>
       </c>
     </row>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -54898,7 +54898,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>סרן</t>
+          <t>רס"ן</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -75176,7 +75176,7 @@
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>סרן (במיל')</t>
+          <t>רס"ן (במיל')</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr">
@@ -75231,7 +75231,7 @@
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>נפל בקרב ברצועה, 16.11</t>
+          <t>נפל בבארי, 7.10</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -701,7 +701,11 @@
           <t>בן 21, אלון שבות</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il/2023/11/22/picture2211.jpeg</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>גבעתי</t>
@@ -714,7 +718,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>15DXmdeq158g15PXkV/XqNeV15bXoNem15XXldeZ15JfMjFf</t>
+          <t>15DXmdeq158g15PXkV/XqNeV15bXoNem15XXldeZ15JfMjFfMjAyMzExMjJwaWN0dXJlMjIxMS5qcGVn</t>
         </is>
       </c>
     </row>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -555,7 +555,11 @@
           <t>בת 23, קרית ביאליק</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://img.mako.co.il/2023/11/23/NoaAngelndar.jpg</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
@@ -564,7 +568,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>16DXldei15Rf15DXoNeS15zXoNeT16hfMjNf</t>
+          <t>16DXldei15Rf15DXoNeS15zXoNeT16hfMjNfMjAyMzExMjNOb2FBbmdlbG5kYXIuanBn</t>
         </is>
       </c>
     </row>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -1892,7 +1892,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>גבעתי, סיירת גבעתי</t>
+          <t>גבעתי - סיירת גבעתי</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>גבעתי, סיירת גבעתי</t>
+          <t>גבעתי - סיירת גבעתי</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>גבעתי, סיירת גבעתי</t>
+          <t>גבעתי - סיירת גבעתי</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -15721,7 +15721,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>גולני, סיירת גולני</t>
+          <t>גולני - סיירת גולני</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>הנדסה קרבית, יהל"ם</t>
+          <t>הנדסה קרבית - יהל"ם</t>
         </is>
       </c>
       <c r="N493" t="inlineStr">
@@ -34750,7 +34750,7 @@
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>אוגדת עזה</t>
+          <t>אוגדת עזה - חטיבה דרומית</t>
         </is>
       </c>
       <c r="N518" t="inlineStr">
@@ -35759,7 +35759,7 @@
       </c>
       <c r="M533" t="inlineStr">
         <is>
-          <t>הנדסה קרבית, חטיבה 401</t>
+          <t>הנדסה קרבית - חטיבה 401</t>
         </is>
       </c>
       <c r="N533" t="inlineStr">
@@ -37008,7 +37008,7 @@
       </c>
       <c r="M552" t="inlineStr">
         <is>
-          <t>חטיבה 12</t>
+          <t>חטיבת הנגב</t>
         </is>
       </c>
       <c r="N552" t="inlineStr">
@@ -38112,7 +38112,7 @@
       </c>
       <c r="N569" t="inlineStr">
         <is>
-          <t>נרצחה בשבי חמאס</t>
+          <t>תצפיתנית בגדוד 414</t>
         </is>
       </c>
       <c r="O569" t="inlineStr">
@@ -38670,7 +38670,7 @@
       </c>
       <c r="M578" t="inlineStr">
         <is>
-          <t>עוצבת הקומנדו</t>
+          <t>מגלן</t>
         </is>
       </c>
       <c r="N578" t="inlineStr">
@@ -39683,7 +39683,7 @@
       </c>
       <c r="M593" t="inlineStr">
         <is>
-          <t>עוצבת הקומנדו</t>
+          <t>אגוז</t>
         </is>
       </c>
       <c r="N593" t="inlineStr">
@@ -41831,7 +41831,7 @@
       </c>
       <c r="M625" t="inlineStr">
         <is>
-          <t>הנדסה קרבית</t>
+          <t>עוצבת חצי האש</t>
         </is>
       </c>
       <c r="N625" t="inlineStr">
@@ -45043,7 +45043,7 @@
       </c>
       <c r="M674" t="inlineStr">
         <is>
-          <t>חטיבה 401</t>
+          <t>שריון - חטיבה 401</t>
         </is>
       </c>
       <c r="N674" t="inlineStr">
@@ -45398,7 +45398,7 @@
       </c>
       <c r="M679" t="inlineStr">
         <is>
-          <t>חטיבה 401</t>
+          <t>שריון - חטיבה 401</t>
         </is>
       </c>
       <c r="N679" t="inlineStr">
@@ -45733,7 +45733,7 @@
       </c>
       <c r="M684" t="inlineStr">
         <is>
-          <t>חטיבה 401</t>
+          <t>שריון - חטיבה 401</t>
         </is>
       </c>
       <c r="N684" t="inlineStr">
@@ -45871,7 +45871,7 @@
       </c>
       <c r="M686" t="inlineStr">
         <is>
-          <t>חטיבה 401</t>
+          <t>שריון - חטיבה 401</t>
         </is>
       </c>
       <c r="N686" t="inlineStr">
@@ -46895,7 +46895,7 @@
       </c>
       <c r="M702" t="inlineStr">
         <is>
-          <t>חטיבת אפרים</t>
+          <t>חטמ"ר אפרים</t>
         </is>
       </c>
       <c r="N702" t="inlineStr">
@@ -47361,7 +47361,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>רס"ל</t>
+          <t>רס"ל (במיל')</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -47411,7 +47411,7 @@
       </c>
       <c r="M710" t="inlineStr">
         <is>
-          <t>גדוד 749 בביסל״ח</t>
+          <t>חטיבת ביסל"ח</t>
         </is>
       </c>
       <c r="N710" t="inlineStr">
@@ -48519,7 +48519,7 @@
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>מפקד הספקה בפיקוד דרום</t>
+          <t>נפל ב-26.10</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
@@ -48589,7 +48589,7 @@
       </c>
       <c r="M728" t="inlineStr">
         <is>
-          <t>לוחם ימ"ל</t>
+          <t>ימ"ל</t>
         </is>
       </c>
       <c r="N728" t="inlineStr">
@@ -50644,7 +50644,11 @@
           <t>25/10/2023</t>
         </is>
       </c>
-      <c r="C761" t="inlineStr"/>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>סגן</t>
+        </is>
+      </c>
       <c r="D761" t="inlineStr">
         <is>
           <t>נוה אלעזר</t>
@@ -50697,7 +50701,7 @@
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
@@ -50772,7 +50776,7 @@
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>נפל בפעילות מבצעית</t>
+          <t>נפל ב-22.10</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
@@ -52306,7 +52310,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>סמ"ר (במיל')</t>
+          <t>רס"ל (במיל')</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -52356,12 +52360,12 @@
       </c>
       <c r="M786" t="inlineStr">
         <is>
-          <t>כרמלי</t>
+          <t>חטיבת כרמלי</t>
         </is>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>נהרג מירי נ"ט בצפון</t>
+          <t>נפל ב-11.10</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
@@ -53149,7 +53153,7 @@
       </c>
       <c r="N798" t="inlineStr">
         <is>
-          <t>נהרג ברעים</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O798" t="inlineStr">
@@ -53508,7 +53512,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -53518,7 +53522,7 @@
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>ברגשטין</t>
+          <t>ברגשטיין</t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
@@ -53568,7 +53572,7 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>16nXl9ejX9eR16jXktep15jXmdefXzMzXzIwMjMxMTE2c2hhaGFmYmVyZ3NodGVpbi5qcGc=</t>
+          <t>16nXl9ejX9eR16jXktep15jXmdeZ159fMzNfMjAyMzExMTZzaGFoYWZiZXJnc2h0ZWluLmpwZw==</t>
         </is>
       </c>
     </row>
@@ -53650,7 +53654,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>טוראי</t>
+          <t>רב"ט</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -54060,7 +54064,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>סג"ם</t>
+          <t>סגן</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -54115,7 +54119,7 @@
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
@@ -54390,12 +54394,12 @@
       </c>
       <c r="M816" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
+          <t>יחידת הלוט"ר</t>
         </is>
       </c>
       <c r="N816" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O816" t="inlineStr">
@@ -55018,7 +55022,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>רס"ן</t>
+          <t>רס"ן (במיל')</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -55298,7 +55302,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>רס"ל (במיל')</t>
+          <t>רס"ר (במיל')</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -55987,7 +55991,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
@@ -56042,7 +56046,7 @@
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>תצפיתנית בנחל בעוז</t>
+          <t>תצפיתנית בגדוד 414</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
@@ -56062,7 +56066,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>רס"ל (במיל')</t>
+          <t>רס"ר (במיל')</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -56112,12 +56116,12 @@
       </c>
       <c r="M842" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
+          <t>מגלן</t>
         </is>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>נפל בקרב בזיקים</t>
+          <t>נפל ב-11.10</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
@@ -56137,7 +56141,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
@@ -56342,7 +56346,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -56567,7 +56571,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>רס"ל</t>
+          <t>רס"ר</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -56622,7 +56626,7 @@
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
@@ -56759,12 +56763,12 @@
       </c>
       <c r="M851" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
+          <t>מגלן</t>
         </is>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
@@ -56834,12 +56838,12 @@
       </c>
       <c r="M852" t="inlineStr">
         <is>
-          <t>פיקוד ההכשרות והאימונים</t>
+          <t>חטיבת ביסל"ח</t>
         </is>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
@@ -56859,7 +56863,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
@@ -56984,12 +56988,12 @@
       </c>
       <c r="M854" t="inlineStr">
         <is>
-          <t>חיל הגנת הגבולות</t>
+          <t>אוגדת יו"ש</t>
         </is>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-8.10</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
@@ -57009,7 +57013,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>רס"ל (במיל')</t>
+          <t>רס"ר (במיל')</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -57059,12 +57063,12 @@
       </c>
       <c r="M855" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
+          <t>מגלן</t>
         </is>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>נפל בקרב בזיקים</t>
+          <t>נפל ב-11.10</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
@@ -57201,12 +57205,12 @@
       </c>
       <c r="M857" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
+          <t>מגלן</t>
         </is>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>נפל בקרב בזיקים</t>
+          <t>נפל ב-11.10</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
@@ -57289,7 +57293,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>רס"ר (במיל׳)</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
@@ -57344,7 +57348,7 @@
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>רבש"ץ היישוב</t>
+          <t>רבש"צ בארי</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
@@ -57782,7 +57786,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -57979,7 +57983,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -58054,7 +58058,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>רס"ר (במיל׳)</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
@@ -58192,7 +58196,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>רס"ר (מיל׳)</t>
+          <t>רס"ם (מיל')</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
@@ -58247,7 +58251,7 @@
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>רבש"ץ היישוב</t>
+          <t>רבש"צ כפר עזה</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
@@ -58330,7 +58334,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
@@ -58405,7 +58409,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>סמ"ר (במיל׳)</t>
+          <t>רס"ל (במיל')</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -58460,7 +58464,7 @@
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>נהרג מפגיעת פצמ"ר</t>
+          <t>נפל ב-14.10</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
@@ -58480,7 +58484,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
@@ -58610,7 +58614,7 @@
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>רבש"ץ היישוב</t>
+          <t>רבש"צ עין השלושה</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
@@ -58685,7 +58689,7 @@
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>רבש"ץ היישוב</t>
+          <t>רבש"צ חולית</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
@@ -58952,7 +58956,7 @@
       </c>
       <c r="M882" t="inlineStr">
         <is>
-          <t>חטיבה 401</t>
+          <t>שריון - חטיבה 401</t>
         </is>
       </c>
       <c r="N882" t="inlineStr">
@@ -59403,7 +59407,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
@@ -59528,10 +59532,14 @@
       </c>
       <c r="M890" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
-        </is>
-      </c>
-      <c r="N890" t="inlineStr"/>
+          <t>יחידת הלוט"ר</t>
+        </is>
+      </c>
+      <c r="N890" t="inlineStr">
+        <is>
+          <t>נפל ב-8.10</t>
+        </is>
+      </c>
       <c r="O890" t="inlineStr">
         <is>
           <t>15DXnNeZX9eS15nXoNeh15HXqNeSXzQyXzIwMjMxMDEzRWxpR2luc2JlcmcuanBn</t>
@@ -59793,7 +59801,7 @@
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>סגן רבש"ץ</t>
+          <t>סגן רבש"צ כפר עזה</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
@@ -59863,10 +59871,14 @@
       </c>
       <c r="M895" t="inlineStr">
         <is>
-          <t>אוגדת עזה</t>
-        </is>
-      </c>
-      <c r="N895" t="inlineStr"/>
+          <t>אוגדת עזה - חטיבה דרומית</t>
+        </is>
+      </c>
+      <c r="N895" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O895" t="inlineStr">
         <is>
           <t>16DXmdeq15DXmV/Xotee15DXqF8yMl8yMDIzMTAxM05ldGhhaS1BbWFyXzQwMHg0MDAuanBn</t>
@@ -59884,7 +59896,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>רס"ב (במיל')</t>
+          <t>רנ"ג (במיל')</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
@@ -60231,7 +60243,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>טוראי</t>
+          <t>רב"ט</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
@@ -60284,7 +60296,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N901" t="inlineStr"/>
+      <c r="N901" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O901" t="inlineStr">
         <is>
           <t>16DXldei151f15DXkdeo157XldeR15nXpV8xOV8yMDIzMTAxMU5vYW0tQWJyYW1vdmljaF80MDAuanBn</t>
@@ -60369,7 +60385,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
@@ -60419,10 +60435,14 @@
       </c>
       <c r="M903" t="inlineStr">
         <is>
-          <t>פיקוד ההכשרות והאימונים</t>
-        </is>
-      </c>
-      <c r="N903" t="inlineStr"/>
+          <t>חטיבת ביסל"ח</t>
+        </is>
+      </c>
+      <c r="N903" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O903" t="inlineStr">
         <is>
           <t>15DXk9edX9eQ15LXnteV159fMjFfMjAyMzEwMjVBZGFtQWdtb24uanBn</t>
@@ -60562,7 +60582,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
@@ -60615,7 +60635,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N906" t="inlineStr"/>
+      <c r="N906" t="inlineStr">
+        <is>
+          <t>לוחם בגדוד 414</t>
+        </is>
+      </c>
       <c r="O906" t="inlineStr">
         <is>
           <t>15DXnteZ16hf15DXmdecXzE5XzIwMjMxMDEyQW1pckV5YWwuanBn</t>
@@ -60696,7 +60720,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>סגן</t>
+          <t>סרן</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
@@ -60749,7 +60773,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N908" t="inlineStr"/>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>מ"מ גדוד 414</t>
+        </is>
+      </c>
       <c r="O908" t="inlineStr">
         <is>
           <t>16nXmdeoX9eQ15nXnNeqXzIwXzIwMjMxMDExU2hpci1FaWxhdF80MDB4NDAwLmpwZw==</t>
@@ -60959,10 +60987,14 @@
       </c>
       <c r="M911" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N911" t="inlineStr"/>
+          <t>דובדבן</t>
+        </is>
+      </c>
+      <c r="N911" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O911" t="inlineStr">
         <is>
           <t>15DXmdeq15kg15nXlNeV15PXlF/XkdeQ15XXodeZXzIyXzIwMjMxMDExaXRheS1ZZWh1ZGEtQmFvc2lfNDAweDQwMC5qcGc=</t>
@@ -60980,7 +61012,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
@@ -61033,7 +61065,11 @@
           <t>הנדסה קרבית</t>
         </is>
       </c>
-      <c r="N912" t="inlineStr"/>
+      <c r="N912" t="inlineStr">
+        <is>
+          <t>נפל ב-8.10</t>
+        </is>
+      </c>
       <c r="O912" t="inlineStr">
         <is>
           <t>16DXqNeZ15Rf15HXnyDXk9eV15NfMjJfMjAyMzEwMTJOZXJpYUJlbkRhdmlkLmpwZw==</t>
@@ -61177,7 +61213,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D915" t="inlineStr">
@@ -61230,7 +61266,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N915" t="inlineStr"/>
+      <c r="N915" t="inlineStr">
+        <is>
+          <t>לוחם בגדוד 414</t>
+        </is>
+      </c>
       <c r="O915" t="inlineStr">
         <is>
           <t>16nXntei15XXnyDXkNec16jXldeQ15lf15HXnyDXqdeY16jXmdeqXzIwXzIwMjMxMDExU2hpbW9uLUVscm95LUJlbi1TaGV0cml0XzQwMHg0MDAuanBn</t>
@@ -61323,7 +61363,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>סרן</t>
+          <t>רס"ן</t>
         </is>
       </c>
       <c r="D917" t="inlineStr">
@@ -61373,10 +61413,14 @@
       </c>
       <c r="M917" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N917" t="inlineStr"/>
+          <t>דובדבן</t>
+        </is>
+      </c>
+      <c r="N917" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O917" t="inlineStr">
         <is>
           <t>15HXn1/Xkdeo15XXoNep15jXmdeZ159fMjRfMjAyMzEwMTFCZW4tQnJvbnN0ZWluXzQwMC5qcGc=</t>
@@ -61444,10 +61488,14 @@
       </c>
       <c r="M918" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N918" t="inlineStr"/>
+          <t>דובדבן</t>
+        </is>
+      </c>
+      <c r="N918" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O918" t="inlineStr">
         <is>
           <t>15nXldeh16Mg157XnNeQ15vXmV/XkteT15zXmdeUXzIyXzIwMjMxMDE2WW9zc2VmTWFsYWhpLmpwZw==</t>
@@ -61515,10 +61563,14 @@
       </c>
       <c r="M919" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
-        </is>
-      </c>
-      <c r="N919" t="inlineStr"/>
+          <t>יחידת הלוט"ר</t>
+        </is>
+      </c>
+      <c r="N919" t="inlineStr">
+        <is>
+          <t>נפל ב-8.10</t>
+        </is>
+      </c>
       <c r="O919" t="inlineStr">
         <is>
           <t>16nXkteZ15Bf15LXldec159fMzBfMjAyMzEwMTNzYWdpX2dvbGFuLmpwZWc=</t>
@@ -61611,7 +61663,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>טוראי</t>
+          <t>רב"ט</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
@@ -61664,7 +61716,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N921" t="inlineStr"/>
+      <c r="N921" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O921" t="inlineStr">
         <is>
           <t>157XmdeUX9eV15nXkNec15XXkdeVINek15XXnNeVXzE5XzIwMjMxMDExTWlhLVZpYWxvdm9fNDAweDQwMC5qcGc=</t>
@@ -61682,7 +61738,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
@@ -61732,10 +61788,14 @@
       </c>
       <c r="M922" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N922" t="inlineStr"/>
+          <t>מגלן</t>
+        </is>
+      </c>
+      <c r="N922" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O922" t="inlineStr">
         <is>
           <t>16LXnteZ15fXmSDXmdei16fXkV/Xldeg15nXoNeVXzIyXzIwMjMxMDE0QW1paGFpWWFha292LmpwZw==</t>
@@ -61806,7 +61866,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N923" t="inlineStr"/>
+      <c r="N923" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O923" t="inlineStr">
         <is>
           <t>16LXmdec15lf15bXmdeh16hfMjdfMjAyMzExMDFJbGFpWmlzbGVyLmpwZw==</t>
@@ -61824,7 +61888,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
@@ -61877,7 +61941,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N924" t="inlineStr"/>
+      <c r="N924" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O924" t="inlineStr">
         <is>
           <t>15DXkdeZ15Ff15fXkifXkidfMTlfMjAyMzEwMjVBdml2SGFqYWouanBn</t>
@@ -62013,7 +62081,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>סג"ם</t>
+          <t>סגן</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
@@ -62063,10 +62131,14 @@
       </c>
       <c r="M927" t="inlineStr">
         <is>
-          <t>חטיבה 7</t>
-        </is>
-      </c>
-      <c r="N927" t="inlineStr"/>
+          <t>שריון - חטיבה 7</t>
+        </is>
+      </c>
+      <c r="N927" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O927" t="inlineStr">
         <is>
           <t>16HXlNeoX9eY15xfMjBfMjAyMzEwMTJTYWhhclRhbC5qcGc=</t>
@@ -62143,7 +62215,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D929" t="inlineStr">
@@ -62193,10 +62265,14 @@
       </c>
       <c r="M929" t="inlineStr">
         <is>
-          <t>אוגדת עזה</t>
-        </is>
-      </c>
-      <c r="N929" t="inlineStr"/>
+          <t>אוגדת עזה - חטיבה צפונית</t>
+        </is>
+      </c>
+      <c r="N929" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O929" t="inlineStr">
         <is>
           <t>15HXldei15Yg157XoNep15Rf15nXldeS15FfMTlfMjAyMzEwMTJCb2F6TWVuYXNoZVlvZ2V2LmpwZw==</t>
@@ -62319,10 +62395,14 @@
       </c>
       <c r="M931" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
-        </is>
-      </c>
-      <c r="N931" t="inlineStr"/>
+          <t>מערך ההגנה האווירית</t>
+        </is>
+      </c>
+      <c r="N931" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O931" t="inlineStr">
         <is>
           <t>15HXoNeZ157XmdefINeS15HXqNeZ15DXnF/XmdeV16DXlF8xOV8yMDIzMTAxMkJlbmphbWluR2F2cmllbFlvbmEuanBn</t>
@@ -62553,7 +62633,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
@@ -62606,7 +62686,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N935" t="inlineStr"/>
+      <c r="N935" t="inlineStr">
+        <is>
+          <t>לוחם בגדוד 414</t>
+        </is>
+      </c>
       <c r="O935" t="inlineStr">
         <is>
           <t>16nXntei15XXn1/XnNeV15LXkNeh15lfMTlfMjAyMzEwMTJTaGltb25MdWdhc2kuanBn</t>
@@ -62750,7 +62834,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -62803,7 +62887,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N938" t="inlineStr"/>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O938" t="inlineStr">
         <is>
           <t>15nXotecX9ec15nXmdeR15XXqdeV16hfMjBfMjAyMzEwMTJZYWVsTGVpYm9zaG9yLmpwZw==</t>
@@ -62821,7 +62909,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D939" t="inlineStr">
@@ -62871,10 +62959,14 @@
       </c>
       <c r="M939" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
-        </is>
-      </c>
-      <c r="N939" t="inlineStr"/>
+          <t>יחידת הלוט"ר</t>
+        </is>
+      </c>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O939" t="inlineStr">
         <is>
           <t>15zXmdeo159f157Xldeg16Eg15DXnNee15XXodeg15nXoNeVXzQyXzIwMjMxMDEyTGlyYW5BbG1vc25pbm8xLmpwZw==</t>
@@ -62892,7 +62984,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D940" t="inlineStr">
@@ -62941,7 +63033,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N940" t="inlineStr"/>
+      <c r="N940" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O940" t="inlineStr">
         <is>
           <t>16nXmdeo15DXnF/XnteV16hfMTlfMjAyMzEwMTFTaGlyYWwtTW9yXzQwMHg0MDAuanBn</t>
@@ -62959,7 +63055,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>סמ"ר</t>
+          <t>רס"ל</t>
         </is>
       </c>
       <c r="D941" t="inlineStr">
@@ -63009,10 +63105,14 @@
       </c>
       <c r="M941" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N941" t="inlineStr"/>
+          <t>אגוז</t>
+        </is>
+      </c>
+      <c r="N941" t="inlineStr">
+        <is>
+          <t>נפל ב-9.10</t>
+        </is>
+      </c>
       <c r="O941" t="inlineStr">
         <is>
           <t>15DXkdeZ15DXnF/Xntec16fXnteVXzIxXzIwMjMxMDE0QXZpZWxNYWxrbW8uanBn</t>
@@ -63030,7 +63130,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>טוראי</t>
+          <t>רב"ט</t>
         </is>
       </c>
       <c r="D942" t="inlineStr">
@@ -63083,7 +63183,11 @@
           <t>מתפ"ש</t>
         </is>
       </c>
-      <c r="N942" t="inlineStr"/>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O942" t="inlineStr">
         <is>
           <t>15zXmdeT15XXqF/Xnten15nXmdehXzE5XzIwMjMxMDI1TGlkb3JNYWthaXMuanBn</t>
@@ -63644,7 +63748,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
@@ -63697,7 +63801,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N952" t="inlineStr"/>
+      <c r="N952" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O952" t="inlineStr">
         <is>
           <t>16nXl9ejX9eg15nXodeg15lfMjBfMjAyMzEwMTJTaGFoYWZOaXNuaS5qcGc=</t>
@@ -63790,7 +63898,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D954" t="inlineStr">
@@ -63840,12 +63948,12 @@
       </c>
       <c r="M954" t="inlineStr">
         <is>
-          <t>עוצבת המפץ</t>
+          <t>חטיבת כרמלי</t>
         </is>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>נפל בקרב בעוטף עזה</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
@@ -63865,7 +63973,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D955" t="inlineStr">
@@ -63918,7 +64026,11 @@
           <t>מתפ"ש</t>
         </is>
       </c>
-      <c r="N955" t="inlineStr"/>
+      <c r="N955" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O955" t="inlineStr">
         <is>
           <t>15DXnteZ15xf16HXnteV15nXnNeV15FfMjJfMjAyMzEwMjVFbWlsU21vaWxvdi5qcGc=</t>
@@ -64011,7 +64123,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>טוראי</t>
+          <t>רב"ט</t>
         </is>
       </c>
       <c r="D957" t="inlineStr">
@@ -64064,7 +64176,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N957" t="inlineStr"/>
+      <c r="N957" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O957" t="inlineStr">
         <is>
           <t>16nXmdeo16og15nXnV/Xotee16hfMThfMjAyMzEwMTJZYW1TaWJvbmkuanBn</t>
@@ -64198,7 +64314,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N959" t="inlineStr"/>
+      <c r="N959" t="inlineStr">
+        <is>
+          <t>רבש"צ נחל עוז</t>
+        </is>
+      </c>
       <c r="O959" t="inlineStr">
         <is>
           <t>15DXmdec159f16TXmdeV16jXoNeY15nXoNeVXzM4XzIwMjMxMDE0SWxhbkZpb3JlbnRpbm8uanBn</t>
@@ -64269,7 +64389,11 @@
           <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
-      <c r="N960" t="inlineStr"/>
+      <c r="N960" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O960" t="inlineStr">
         <is>
           <t>16LXldee16jXmSDXoNeZ15Ff16TXmdeZ16jXqdeY15nXmdefXzIwXzIwMjMxMDExTml2ZmVpcnNodGVpbi5wbmc=</t>
@@ -64287,7 +64411,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D961" t="inlineStr">
@@ -64340,7 +64464,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N961" t="inlineStr"/>
+      <c r="N961" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O961" t="inlineStr">
         <is>
           <t>16DXldei15Rf16TXqNeZ15nXoV8yMF8yMDIzMTAxMk5vYVByYWlzLmpwZw==</t>
@@ -64358,7 +64486,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>סרן</t>
+          <t>רס"ן</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
@@ -64408,10 +64536,14 @@
       </c>
       <c r="M962" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
-        </is>
-      </c>
-      <c r="N962" t="inlineStr"/>
+          <t>עוקץ</t>
+        </is>
+      </c>
+      <c r="N962" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O962" t="inlineStr">
         <is>
           <t>15DXqNeZ15Qg16nXnNee15Rf16bXmdeo15nXoNeSXzI3XzIwMjMxMDI1QXJpZVNobG9tb1ppcmluZy5qcGc=</t>
@@ -64484,7 +64616,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>סגן</t>
+          <t>סרן</t>
         </is>
       </c>
       <c r="D964" t="inlineStr">
@@ -64534,10 +64666,14 @@
       </c>
       <c r="M964" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
-        </is>
-      </c>
-      <c r="N964" t="inlineStr"/>
+          <t>מערך הבקרה האווירית</t>
+        </is>
+      </c>
+      <c r="N964" t="inlineStr">
+        <is>
+          <t>נפלה ב-7.10</t>
+        </is>
+      </c>
       <c r="O964" t="inlineStr">
         <is>
           <t>16jXldefX9em16jXpNeq15lfMjJfMjAyMzEwMTRSb25aYXJmYXRpLmpwZw==</t>
@@ -64555,7 +64691,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
@@ -64605,10 +64741,14 @@
       </c>
       <c r="M965" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
-        </is>
-      </c>
-      <c r="N965" t="inlineStr"/>
+          <t>מערך ההגנה האווירית</t>
+        </is>
+      </c>
+      <c r="N965" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O965" t="inlineStr">
         <is>
           <t>16DXqteZ15Ff16fXldem16jXlV8yMV8yMDIzMTAxMk5hdGl2S296cm8uanBn</t>
@@ -64797,7 +64937,11 @@
           <t>חיל הטכנולוגיה והאחזקה</t>
         </is>
       </c>
-      <c r="N968" t="inlineStr"/>
+      <c r="N968" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O968" t="inlineStr">
         <is>
           <t>15PXoNeZ15DXnF/Xp9eh15HXptez15XXp18yMV8yMDIzMTAyNURhbmllbFZhay5qcGc=</t>
@@ -64815,7 +64959,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
@@ -64868,7 +65012,11 @@
           <t>החטיבה הטכנולוגית ליבשה</t>
         </is>
       </c>
-      <c r="N969" t="inlineStr"/>
+      <c r="N969" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O969" t="inlineStr">
         <is>
           <t>15DXkdeZ16LXk1/XqNeR15zXmdefXzIzXzIwMjMxMDI1QXZpYWRSaXZsaW4uanBn</t>
@@ -65004,7 +65152,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>סמ"ר</t>
+          <t>רס"ל</t>
         </is>
       </c>
       <c r="D972" t="inlineStr">
@@ -65054,12 +65202,12 @@
       </c>
       <c r="M972" t="inlineStr">
         <is>
-          <t>זרוע הים</t>
+          <t>זרוע הים - שייטת 13</t>
         </is>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>לוחם בשייטת 13</t>
+          <t>נפל ב-8.10</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
@@ -65079,7 +65227,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D973" t="inlineStr">
@@ -65333,7 +65481,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N976" t="inlineStr"/>
+      <c r="N976" t="inlineStr">
+        <is>
+          <t>לוחם בגדוד 414</t>
+        </is>
+      </c>
       <c r="O976" t="inlineStr">
         <is>
           <t>15PXoNeZ15DXnCBf16nXpNeo15HXqF8yMF8yMDIzMTAxMmRhbmllbHNocGVyYmVyLmpwZw==</t>
@@ -65485,7 +65637,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>רס"ל (במיל')</t>
+          <t>רס"ר (במיל')</t>
         </is>
       </c>
       <c r="D979" t="inlineStr">
@@ -65538,7 +65690,11 @@
           <t>עוצבת חצי האש</t>
         </is>
       </c>
-      <c r="N979" t="inlineStr"/>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>נפל ב-9.10</t>
+        </is>
+      </c>
       <c r="O979" t="inlineStr">
         <is>
           <t>15DXkdeZ15fXmV/XkNee16HXnNedXzMwXzIwMjMxMDI3QXZpY2hhaS1BbXNhbGVtXzQwMHg0MDAuanBn</t>
@@ -65832,7 +65988,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>סמ"ר (מיל׳)</t>
+          <t>רס"ל (במיל')</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
@@ -65960,7 +66116,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N985" t="inlineStr"/>
+      <c r="N985" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O985" t="inlineStr">
         <is>
           <t>16nXmV/XkNep16jXnV8xOV8yMDIzMTAyMFNoaS1Bc2hyYW1fNDAweDQwMC5qcGc=</t>
@@ -66383,10 +66543,14 @@
       </c>
       <c r="M991" t="inlineStr">
         <is>
-          <t>חטיבה מרחבית שומרון</t>
-        </is>
-      </c>
-      <c r="N991" t="inlineStr"/>
+          <t>חטמ"ר שומרון</t>
+        </is>
+      </c>
+      <c r="N991" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O991" t="inlineStr">
         <is>
           <t>15nXldeR15xf15LXkdeQ15lfMzVfMjAyMzEwMjJZdXZhbC1HYWJhaV80MDB4NDAwLmpwZw==</t>
@@ -66647,12 +66811,12 @@
       </c>
       <c r="M995" t="inlineStr">
         <is>
-          <t>פיקוד העורף</t>
+          <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>לוחם חטיבת החילוץ</t>
+          <t>נפל ב-8.10</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -66800,7 +66964,11 @@
           <t>עוצבת חצי האש</t>
         </is>
       </c>
-      <c r="N997" t="inlineStr"/>
+      <c r="N997" t="inlineStr">
+        <is>
+          <t>נפל ב-9.10</t>
+        </is>
+      </c>
       <c r="O997" t="inlineStr">
         <is>
           <t>15nXldeR15xf15TXnNeZ15HXoNeZXzMwXzIwMjMxMDE1WXV2YWxIYWxpYmFuaS5qcGc=</t>
@@ -67094,7 +67262,7 @@
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D1002" t="inlineStr">
@@ -67147,7 +67315,11 @@
           <t>כפיר</t>
         </is>
       </c>
-      <c r="N1002" t="inlineStr"/>
+      <c r="N1002" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1002" t="inlineStr">
         <is>
           <t>16DXqtefINeX15lf15zXmdeQ16hfMjBfMjAyMzEwMjNIYWlMaWFyLmpwZw==</t>
@@ -67165,7 +67337,7 @@
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>סרן (במיל')</t>
+          <t>רס"ן (במיל')</t>
         </is>
       </c>
       <c r="D1003" t="inlineStr">
@@ -67218,7 +67390,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N1003" t="inlineStr"/>
+      <c r="N1003" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1003" t="inlineStr">
         <is>
           <t>15PXldeTX9ee15DXmdeoXzMxXzIwMjMxMDEwbWVpci5kYXZpZC5oYWltLnBuZw==</t>
@@ -67340,7 +67516,11 @@
           <t>הנדסה קרבית</t>
         </is>
       </c>
-      <c r="N1005" t="inlineStr"/>
+      <c r="N1005" t="inlineStr">
+        <is>
+          <t>נפל ב-8.10</t>
+        </is>
+      </c>
       <c r="O1005" t="inlineStr">
         <is>
           <t>15DXnNeb16HXoNeT16hf157XkNeh15zXmV8yMV8yMDIzMTAxMGFsZXhhbmRlci5tYXNsaS5wbmc=</t>
@@ -67508,7 +67688,7 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D1008" t="inlineStr">
@@ -67561,7 +67741,11 @@
           <t>מתפ"ש</t>
         </is>
       </c>
-      <c r="N1008" t="inlineStr"/>
+      <c r="N1008" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1008" t="inlineStr">
         <is>
           <t>15DXldeoX9ee15zXm9eUXzIxXzIwMjMxMDI0T3ItTWFsa2EtbmV3XzQwMHg0MDAuanBn</t>
@@ -68453,7 +68637,7 @@
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>רס"ר (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D1023" t="inlineStr">
@@ -68466,7 +68650,11 @@
           <t>ממן</t>
         </is>
       </c>
-      <c r="F1023" t="inlineStr"/>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="G1023" t="inlineStr">
         <is>
           <t>גבר</t>
@@ -68482,10 +68670,14 @@
           <t>חייל</t>
         </is>
       </c>
-      <c r="J1023" t="inlineStr"/>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>בן 38</t>
+        </is>
+      </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>מבטחים</t>
+          <t>בן 38, מבטחים</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
@@ -68505,7 +68697,7 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>15jXnF/Xntee159fXzIwMjMxMDEydGFsX21hbWFuLmpwZw==</t>
+          <t>15jXnF/Xntee159fMzhfMjAyMzEwMTJ0YWxfbWFtYW4uanBn</t>
         </is>
       </c>
     </row>
@@ -68573,7 +68765,11 @@
           <t>עוצבת חצי האש</t>
         </is>
       </c>
-      <c r="N1024" t="inlineStr"/>
+      <c r="N1024" t="inlineStr">
+        <is>
+          <t>נפל ב-9.10</t>
+        </is>
+      </c>
       <c r="O1024" t="inlineStr">
         <is>
           <t>15Mi16gg15DXmdeq158g157XoNeX151f16DXkNee159fNDVfMjAyMzEwMTNFaXRhbk5hYW1hbi5qcGc=</t>
@@ -68914,7 +69110,7 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>סמ"ר</t>
+          <t>רס"ל</t>
         </is>
       </c>
       <c r="D1030" t="inlineStr">
@@ -68964,10 +69160,14 @@
       </c>
       <c r="M1030" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1030" t="inlineStr"/>
+          <t>אגוז</t>
+        </is>
+      </c>
+      <c r="N1030" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1030" t="inlineStr">
         <is>
           <t>15nXldeg16rXn1/XodeR15nXpten15lfMjFfMjAyMzEwMjNKb25hdGhhblN2aXpraS5qcGc=</t>
@@ -69221,7 +69421,7 @@
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>סגן</t>
+          <t>סרן</t>
         </is>
       </c>
       <c r="D1035" t="inlineStr">
@@ -69271,10 +69471,14 @@
       </c>
       <c r="M1035" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
-        </is>
-      </c>
-      <c r="N1035" t="inlineStr"/>
+          <t>מערך ההגנה האווירית</t>
+        </is>
+      </c>
+      <c r="N1035" t="inlineStr">
+        <is>
+          <t>נפלה ב-7.10</t>
+        </is>
+      </c>
       <c r="O1035" t="inlineStr">
         <is>
           <t>16HXlNeoX9eh16LXldeT15nXn18yMV8yMDIzMTAyM3NhaGFyU2F1ZGFpbi5qcGc=</t>
@@ -69406,7 +69610,7 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
@@ -69459,7 +69663,11 @@
           <t>כפיר</t>
         </is>
       </c>
-      <c r="N1038" t="inlineStr"/>
+      <c r="N1038" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1038" t="inlineStr">
         <is>
           <t>16DXlNeV16jXkNeZX9eh16LXmdeTXzIxXzIwMjMxMDE4TmFob3JhaS1TYWlkXzQwMHg0MDAuanBn</t>
@@ -69641,10 +69849,14 @@
       </c>
       <c r="M1041" t="inlineStr">
         <is>
-          <t>עוצבת ברעם</t>
-        </is>
-      </c>
-      <c r="N1041" t="inlineStr"/>
+          <t>חטיבה 300</t>
+        </is>
+      </c>
+      <c r="N1041" t="inlineStr">
+        <is>
+          <t>נפל ב-9.10</t>
+        </is>
+      </c>
       <c r="O1041" t="inlineStr">
         <is>
           <t>15In15XXkNeTIF/XoteQ157XqF8yM18yMDIzMTAyM0pvYWRBbWFyLi5qcGc=</t>
@@ -69885,10 +70097,14 @@
       </c>
       <c r="M1045" t="inlineStr">
         <is>
-          <t>עוצבת ברעם</t>
-        </is>
-      </c>
-      <c r="N1045" t="inlineStr"/>
+          <t>חטיבה 300</t>
+        </is>
+      </c>
+      <c r="N1045" t="inlineStr">
+        <is>
+          <t>נפל ב-9.10</t>
+        </is>
+      </c>
       <c r="O1045" t="inlineStr">
         <is>
           <t>16LXnNeZ150gX9ei15HXk9eQ15zXnNeUXzQwXzIwMjMxMDIzQWxpbUFiZGFsbGFoLmpwZw==</t>
@@ -70276,7 +70492,7 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>סמ"ר</t>
+          <t>רס"ל</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
@@ -70326,10 +70542,14 @@
       </c>
       <c r="M1052" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1052" t="inlineStr"/>
+          <t>אגוז</t>
+        </is>
+      </c>
+      <c r="N1052" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1052" t="inlineStr">
         <is>
           <t>16LXnteZ16pf16TXnNeTXzIxXzIwMjMxMDIzQW1pdFBlbGVkLmpwZw==</t>
@@ -70735,7 +70955,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N1058" t="inlineStr"/>
+      <c r="N1058" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1058" t="inlineStr">
         <is>
           <t>15TXk9eoX9en157XlF8yNF8=</t>
@@ -70808,7 +71032,7 @@
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>חבר כיתת הכוננות ביישוב</t>
+          <t>לוחם בגדוד 414</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
@@ -70828,7 +71052,7 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
@@ -70881,7 +71105,11 @@
           <t>פיקוד ההכשרות והאימונים</t>
         </is>
       </c>
-      <c r="N1060" t="inlineStr"/>
+      <c r="N1060" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1060" t="inlineStr">
         <is>
           <t>16DXldei150g15DXnNeZ157XnNeaX9eo15XXmNeg15HXqNeSXzI0XzIwMjMxMDE4Tm9hbS1FbGltbGVjaF80MDB4NDAwLmpwZw==</t>
@@ -71029,7 +71257,7 @@
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>רבש"ץ היישוב</t>
+          <t>רבש"צ ניר יצחק</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
@@ -71611,12 +71839,12 @@
       </c>
       <c r="M1071" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
+          <t>אגוז</t>
         </is>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>נפל בקרב על כיסופים</t>
+          <t>נפל ב-7.10</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
@@ -71689,7 +71917,11 @@
           <t>חיל הרגלים</t>
         </is>
       </c>
-      <c r="N1072" t="inlineStr"/>
+      <c r="N1072" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1072" t="inlineStr">
         <is>
           <t>16LXmdeT15Vf15DXk9eo15lfMjRfMjAyMzEwMThJZG8tQWRyaV80MDB4NDAwLmpwZw==</t>
@@ -71825,7 +72057,7 @@
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>טוראי</t>
+          <t>רב"ט</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
@@ -71878,7 +72110,11 @@
           <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
-      <c r="N1075" t="inlineStr"/>
+      <c r="N1075" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1075" t="inlineStr">
         <is>
           <t>16DXqNeZ15Rf15DXlNeo15XXnyDXoNeS16jXmV8xOF8yMDIzMTAxMG5lcmlhLmFoYXJvbi5wbmc=</t>
@@ -72199,7 +72435,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
@@ -72252,7 +72488,11 @@
           <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
-      <c r="N1081" t="inlineStr"/>
+      <c r="N1081" t="inlineStr">
+        <is>
+          <t>נפלה ב-7.10</t>
+        </is>
+      </c>
       <c r="O1081" t="inlineStr">
         <is>
           <t>16LXk9efX9eQ15zXldefINec15XXmV8xOV8yMDIzMTAxMGVkZW4uYWxvbi5wbmc=</t>
@@ -72325,7 +72565,7 @@
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>רבש"ץ היישוב</t>
+          <t>רבש"צ היישוב מבטחים</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
@@ -72345,7 +72585,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>סרן (מיל')</t>
+          <t>סרן (במיל')</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr">
@@ -72525,10 +72765,14 @@
       </c>
       <c r="M1085" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1085" t="inlineStr"/>
+          <t>מגלן</t>
+        </is>
+      </c>
+      <c r="N1085" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1085" t="inlineStr">
         <is>
           <t>15fXn1/XkdeV15vXqNeZ16FfMjZfMjAyMzEwMTFDaGVuYnVjaHJpcy5wbmc=</t>
@@ -72546,7 +72790,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>רס"ל</t>
+          <t>רס"ר (במיל')</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr">
@@ -72596,10 +72840,14 @@
       </c>
       <c r="M1086" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
-        </is>
-      </c>
-      <c r="N1086" t="inlineStr"/>
+          <t>יחידת הלוט"ר</t>
+        </is>
+      </c>
+      <c r="N1086" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1086" t="inlineStr">
         <is>
           <t>16LXnteo15lf15HXnNen15nXn18yNV8yMDIzMTAyM09tcmlCbGVraW4uanBn</t>
@@ -73032,7 +73280,11 @@
           <t>היחידה הרב-ממדית</t>
         </is>
       </c>
-      <c r="N1093" t="inlineStr"/>
+      <c r="N1093" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1093" t="inlineStr">
         <is>
           <t>15nXldeq151f15HXnyDXkdeh15hfMjRfMjAyMzEwMTB5b3RhbS5iZWIuYmFzYXQucG5n</t>
@@ -73050,7 +73302,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>רס"ל (במיל׳)</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
@@ -73105,7 +73357,7 @@
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>סגן רבש"ץ</t>
+          <t>סגן רבש"צ ישע</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
@@ -73123,7 +73375,11 @@
           <t>10/10/2023</t>
         </is>
       </c>
-      <c r="C1095" t="inlineStr"/>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>סרן (במיל')</t>
+        </is>
+      </c>
       <c r="D1095" t="inlineStr">
         <is>
           <t>איתי</t>
@@ -73169,11 +73425,7 @@
           <t>https://img.mako.co.il//2023/10/16/itay-Joshua_400x400.jpg</t>
         </is>
       </c>
-      <c r="M1095" t="inlineStr">
-        <is>
-          <t>אגף המבצעים</t>
-        </is>
-      </c>
+      <c r="M1095" t="inlineStr"/>
       <c r="N1095" t="inlineStr"/>
       <c r="O1095" t="inlineStr">
         <is>
@@ -73245,7 +73497,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N1096" t="inlineStr"/>
+      <c r="N1096" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1096" t="inlineStr">
         <is>
           <t>15DXqNeZ15DXnF/XkdefINee16nXlF8yN18yMDIzMTAyM0FyaWVsQmVuTW9zaGUuLmpwZw==</t>
@@ -73263,7 +73519,7 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>סג"ם</t>
+          <t>סגן</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">
@@ -73316,7 +73572,11 @@
           <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
-      <c r="N1097" t="inlineStr"/>
+      <c r="N1097" t="inlineStr">
+        <is>
+          <t>נפלה ב-7.10</t>
+        </is>
+      </c>
       <c r="O1097" t="inlineStr">
         <is>
           <t>15DXk9eoX9eR158g16HXmdee15XXn18yMF8yMDIzMTAxMGFkYXIuYmVuLnNpbW9uLnBuZw==</t>
@@ -73444,7 +73704,7 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>סמ"ר</t>
+          <t>סגן</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr">
@@ -73497,7 +73757,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N1100" t="inlineStr"/>
+      <c r="N1100" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1100" t="inlineStr">
         <is>
           <t>15DXk9eZ16hf15LXkNeV16jXmV8yMF8yMDIzMTAxMWFkaXIuZ2FvcmlfNDAweDQwMC5qcGc=</t>
@@ -73582,7 +73846,7 @@
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr">
@@ -73628,10 +73892,14 @@
       <c r="L1102" t="inlineStr"/>
       <c r="M1102" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1102" t="inlineStr"/>
+          <t>מגלן</t>
+        </is>
+      </c>
+      <c r="N1102" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1102" t="inlineStr">
         <is>
           <t>16LXnteZ16pf15LXldeQ15jXlF8yMV8=</t>
@@ -73777,7 +74045,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N1104" t="inlineStr"/>
+      <c r="N1104" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O1104" t="inlineStr">
         <is>
           <t>16LXk9eZX9eS16jXldee159fMTlfMjAyMzEwMTBhZGkuZ3J1bWFuLmpwZw==</t>
@@ -74148,7 +74420,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N1109" t="inlineStr"/>
+      <c r="N1109" t="inlineStr">
+        <is>
+          <t>סמג"ד קרק"ל</t>
+        </is>
+      </c>
       <c r="O1109" t="inlineStr">
         <is>
           <t>15DXkdeo15TXnV/Xl9eV15HXnNeQ16nXldeZ15zXmV8yNl8yMDIzMTAxOUF2cmFoYW0tSG92bGFzaG9pbF80MDB4NDAwLmpwZw==</t>
@@ -74318,10 +74594,14 @@
       </c>
       <c r="M1112" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
-        </is>
-      </c>
-      <c r="N1112" t="inlineStr"/>
+          <t>שלדג</t>
+        </is>
+      </c>
+      <c r="N1112" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1112" t="inlineStr">
         <is>
           <t>16LXmdeT15Vf15nXlNeV16nXol8yN18yMDIzMTAxMGlkby55aG9zaGEucG5n</t>
@@ -74344,12 +74624,12 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>רועי</t>
+          <t>רועי יוסף</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>יוסף לוי</t>
+          <t>לוי</t>
         </is>
       </c>
       <c r="F1113" t="inlineStr">
@@ -74392,10 +74672,14 @@
           <t>היחידה הרב-ממדית</t>
         </is>
       </c>
-      <c r="N1113" t="inlineStr"/>
+      <c r="N1113" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>16jXldei15lf15nXldeh16Mg15zXldeZXzQ0XzIwMjMxMDEwcm9laS55b3NlZi5sZXZpLmpwZWc=</t>
+          <t>16jXldei15kg15nXldeh16Nf15zXldeZXzQ0XzIwMjMxMDEwcm9laS55b3NlZi5sZXZpLmpwZWc=</t>
         </is>
       </c>
     </row>
@@ -74410,7 +74694,7 @@
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>סרן</t>
+          <t>רס"ן</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr">
@@ -74460,10 +74744,14 @@
       </c>
       <c r="M1114" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1114" t="inlineStr"/>
+          <t>דובדבן</t>
+        </is>
+      </c>
+      <c r="N1114" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1114" t="inlineStr">
         <is>
           <t>15DXldeoX9eZ15XXodejINeo159fMjlfMjAyMzEwMTBvci55b3NlZi5yYW4ucG5n</t>
@@ -74531,10 +74819,14 @@
       </c>
       <c r="M1115" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1115" t="inlineStr"/>
+          <t>מגלן</t>
+        </is>
+      </c>
+      <c r="N1115" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1115" t="inlineStr">
         <is>
           <t>15nXpNeq15df15nXoteR16VfMjNfMjAyMzEwMTFZYWFiZXR6LnBuZw==</t>
@@ -74552,7 +74844,7 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>טוראי</t>
+          <t>רב"ט</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr">
@@ -74605,7 +74897,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N1116" t="inlineStr"/>
+      <c r="N1116" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O1116" t="inlineStr">
         <is>
           <t>15TXk9eoINee16jXmdedX9eb15TXn18xOF8yMDIzMTAxMkNvaGVuSGFkYXJNaXJpYW0uanBn</t>
@@ -74765,7 +75061,7 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>סמ"ר</t>
+          <t>רס"ל</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr">
@@ -74815,7 +75111,7 @@
       </c>
       <c r="M1119" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
+          <t>שלדג</t>
         </is>
       </c>
       <c r="N1119" t="inlineStr"/>
@@ -74961,10 +75257,14 @@
       </c>
       <c r="M1121" t="inlineStr">
         <is>
-          <t>הנדסה קרבית</t>
-        </is>
-      </c>
-      <c r="N1121" t="inlineStr"/>
+          <t>הנדסה קרבית - יהל"ם</t>
+        </is>
+      </c>
+      <c r="N1121" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1121" t="inlineStr">
         <is>
           <t>15DXmdeq15lf15vXlNefXzIyXzIwMjMxMDExSXRheWNvaGVuLnBuZw==</t>
@@ -75150,7 +75450,7 @@
       </c>
       <c r="M1124" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
+          <t>שלדג</t>
         </is>
       </c>
       <c r="N1124" t="inlineStr"/>
@@ -75287,7 +75587,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N1126" t="inlineStr"/>
+      <c r="N1126" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1126" t="inlineStr">
         <is>
           <t>15jXnF/Xm9eU159fMzBfMjAyMzEwMjNUYWxDb2hlbi5qcGc=</t>
@@ -75597,7 +75901,7 @@
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>סגן</t>
+          <t>סרן</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr">
@@ -75650,7 +75954,11 @@
           <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
-      <c r="N1131" t="inlineStr"/>
+      <c r="N1131" t="inlineStr">
+        <is>
+          <t>נפלה ב-7.10</t>
+        </is>
+      </c>
       <c r="O1131" t="inlineStr">
         <is>
           <t>15DXldeoX9ee15XXltehXzIyXzIwMjMxMDEwb3IubW96ZXMucG5n</t>
@@ -75774,7 +76082,7 @@
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>רס"ל (במיל')</t>
+          <t>רס"ר (במיל')</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr">
@@ -75824,10 +76132,14 @@
       </c>
       <c r="M1134" t="inlineStr">
         <is>
-          <t>עוצבת ברעם</t>
-        </is>
-      </c>
-      <c r="N1134" t="inlineStr"/>
+          <t>חטיבה 300</t>
+        </is>
+      </c>
+      <c r="N1134" t="inlineStr">
+        <is>
+          <t>נפל ב-9.10</t>
+        </is>
+      </c>
       <c r="O1134" t="inlineStr">
         <is>
           <t>15LXnNei15Nf157Xldec15vXlV8zM18yMDIzMTAyM0dpbGFkTW9sa28uanBn</t>
@@ -76117,7 +76429,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>רס"ן (במיל')</t>
+          <t>רס"ם (במיל')</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
@@ -76167,10 +76479,14 @@
       </c>
       <c r="M1139" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1139" t="inlineStr"/>
+          <t>דובדבן</t>
+        </is>
+      </c>
+      <c r="N1139" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1139" t="inlineStr">
         <is>
           <t>16LXnteo15lf157Xmdeb15DXnNeZXzM1XzIwMjMxMDEwb21yaS5taWNoYWVsaS5wbmc=</t>
@@ -76691,7 +77007,7 @@
       </c>
       <c r="M1147" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
+          <t>יחידת הלוט"ר</t>
         </is>
       </c>
       <c r="N1147" t="inlineStr">
@@ -76840,7 +77156,11 @@
           <t>עוצבת בני-אור</t>
         </is>
       </c>
-      <c r="N1149" t="inlineStr"/>
+      <c r="N1149" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1149" t="inlineStr">
         <is>
           <t>16TXnNeSX9eh15DXnNedXzMwXzIwMjMxMDEzUGVsZWdTYWxhbS5qcGc=</t>
@@ -76911,7 +77231,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N1150" t="inlineStr"/>
+      <c r="N1150" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1150" t="inlineStr">
         <is>
           <t>15DXnteZ16hf16HXp9eV16jXmV8zMV8yMDIzMTAxMGFtaXIuc2FrdXJpLnBuZw==</t>
@@ -77081,10 +77405,14 @@
       </c>
       <c r="M1153" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1153" t="inlineStr"/>
+          <t>אגוז</t>
+        </is>
+      </c>
+      <c r="N1153" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1153" t="inlineStr">
         <is>
           <t>15XXmdeY15zXmV/Xoden15nXpNen15HXmdelJ18yMV8yMDIzMTAxMHZpdGFsaS5za2lwa2F2aXR6LmpwZWc=</t>
@@ -77102,7 +77430,7 @@
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>סרן</t>
+          <t>רס"ן</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr">
@@ -77155,7 +77483,11 @@
           <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
-      <c r="N1154" t="inlineStr"/>
+      <c r="N1154" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1154" t="inlineStr">
         <is>
           <t>15DXk9eZ16hf16LXkdeV15PXmV8yM18yMDIzMTAxMGFkaXIuYWJ1ZGkucG5n</t>
@@ -77361,10 +77693,14 @@
       <c r="L1157" t="inlineStr"/>
       <c r="M1157" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1157" t="inlineStr"/>
+          <t>דובדבן</t>
+        </is>
+      </c>
+      <c r="N1157" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1157" t="inlineStr">
         <is>
           <t>15DXnteZ16hf16TXmdep16hfMjJf</t>
@@ -77453,7 +77789,7 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>סגן</t>
+          <t>סרן</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr">
@@ -77506,7 +77842,11 @@
           <t>סיירת מטכ"ל</t>
         </is>
       </c>
-      <c r="N1159" t="inlineStr"/>
+      <c r="N1159" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1159" t="inlineStr">
         <is>
           <t>15DXnteZ16hf16bXldeoXzIzXzIwMjMxMDIzQW1pclp1ci5qcGc=</t>
@@ -77914,7 +78254,7 @@
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>סג"ם</t>
+          <t>סגן</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr">
@@ -77967,7 +78307,11 @@
           <t>חטיבת החילוץ וההדרכה</t>
         </is>
       </c>
-      <c r="N1166" t="inlineStr"/>
+      <c r="N1166" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1166" t="inlineStr">
         <is>
           <t>15nXoNeQ15lf16fXnteZ16DXp9eQXzIwXzIwMjMxMDEweWFuYWkua2FtaW5rYS5wbmc=</t>
@@ -78276,7 +78620,7 @@
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr">
@@ -78326,10 +78670,14 @@
       </c>
       <c r="M1172" t="inlineStr">
         <is>
-          <t>היחידה ללוחמה בטרור</t>
-        </is>
-      </c>
-      <c r="N1172" t="inlineStr"/>
+          <t>יחידת הלוט"ר</t>
+        </is>
+      </c>
+      <c r="N1172" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1172" t="inlineStr">
         <is>
           <t>15HXn1/XqNeV15HXmdeg16nXmNeZ15nXn18yMF8yMDIzMTAxMGJlbi5ydWJpbnNodGVhaW4uanBlZw==</t>
@@ -78347,7 +78695,7 @@
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>סמל</t>
+          <t>סמ"ר</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr">
@@ -78397,10 +78745,14 @@
       </c>
       <c r="M1173" t="inlineStr">
         <is>
-          <t>חטיבת הקומנדו</t>
-        </is>
-      </c>
-      <c r="N1173" t="inlineStr"/>
+          <t>מגלן</t>
+        </is>
+      </c>
+      <c r="N1173" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1173" t="inlineStr">
         <is>
           <t>15DXpNeZ16df16jXldeW16DXmNecXzIwXzIwMjMxMDExUm96ZW50YWxhZmlrLnBuZw==</t>
@@ -78418,7 +78770,7 @@
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>רס"ב</t>
+          <t>רנ"ג</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr">
@@ -78468,7 +78820,7 @@
       </c>
       <c r="M1174" t="inlineStr">
         <is>
-          <t>זרוע האוויר והחלל</t>
+          <t>שלדג</t>
         </is>
       </c>
       <c r="N1174" t="inlineStr"/>
@@ -78489,7 +78841,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>רס"ל (במיל')</t>
+          <t>רס"ר (במיל')</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr">
@@ -78761,7 +79113,7 @@
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>רב"ט</t>
+          <t>סמל</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr">
@@ -78814,7 +79166,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N1179" t="inlineStr"/>
+      <c r="N1179" t="inlineStr">
+        <is>
+          <t>תצפיתנית בגדוד 414</t>
+        </is>
+      </c>
       <c r="O1179" t="inlineStr">
         <is>
           <t>16nXmdeo15Rf16nXldeX15hfMTlfMjAyMzEwMjNTaGlyYVNob2hhdC5qcGc=</t>
@@ -78960,7 +79316,11 @@
           <t>חיל הגנת הגבולות</t>
         </is>
       </c>
-      <c r="N1181" t="inlineStr"/>
+      <c r="N1181" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1181" t="inlineStr">
         <is>
           <t>15DXldeo159f16nXmNeo159fNDlfMjAyMzEwMThPcmVuLVN0ZXJuXzQwMHg0MDAuanBn</t>
@@ -79088,7 +79448,7 @@
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>סגן</t>
+          <t>סרן</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr">
@@ -79141,7 +79501,11 @@
           <t>זרוע האוויר והחלל</t>
         </is>
       </c>
-      <c r="N1184" t="inlineStr"/>
+      <c r="N1184" t="inlineStr">
+        <is>
+          <t>נפל ב-7.10</t>
+        </is>
+      </c>
       <c r="O1184" t="inlineStr">
         <is>
           <t>16jXldedX9ep15zXldee15lfMjNfMjAyMzEwMTByb20uc2hsb21pLnBuZw==</t>

--- a/data/mako.xlsx
+++ b/data/mako.xlsx
@@ -18656,7 +18656,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>https://img.mako.co.il/2023/10/20/Nebo-ard_400x400.jpg</t>
+          <t>https://img.mako.co.il/2023/11/23/NevoArad_1_400x400.jpg</t>
         </is>
       </c>
       <c r="M275" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>16DXkdeVICjXqdec157XlClf15DXqNeTXzI1XzIwMjMxMDIwTmViby1hcmRfNDAweDQwMC5qcGc=</t>
+          <t>16DXkdeVICjXqdec157XlClf15DXqNeTXzI1XzIwMjMxMTIzTmV2b0FyYWRfMV80MDB4NDAwLmpwZw==</t>
         </is>
       </c>
     </row>
@@ -67658,7 +67658,7 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>https://img.mako.co.il/2023/10/14/MatanMalka.jpg</t>
+          <t>https://img.mako.co.il/2023/11/23/MatanMalka_1_400x400.jpg</t>
         </is>
       </c>
       <c r="M1007" t="inlineStr">
@@ -67673,7 +67673,7 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>157XqtefX9ee15zXm9eUXzE5XzIwMjMxMDE0TWF0YW5NYWxrYS5qcGc=</t>
+          <t>157XqtefX9ee15zXm9eUXzE5XzIwMjMxMTIzTWF0YW5NYWxrYV8xXzQwMHg0MDAuanBn</t>
         </is>
       </c>
     </row>
